--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F894AE-F092-4414-BCE3-D8DDDBC895A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61D751-C645-4FBF-A4C3-6BB0101AF39E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
     <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
     <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Run</t>
   </si>
@@ -209,6 +210,135 @@
   <si>
     <t>Newman19</t>
   </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phonenumber</t>
+  </si>
+  <si>
+    <t>Testrole</t>
+  </si>
+  <si>
+    <t>OrganizationType</t>
+  </si>
+  <si>
+    <t>OrganizationType2</t>
+  </si>
+  <si>
+    <t>OrganizationType3</t>
+  </si>
+  <si>
+    <t>OrganizationType4</t>
+  </si>
+  <si>
+    <t>HeadOffice</t>
+  </si>
+  <si>
+    <t>InvalidEmailId</t>
+  </si>
+  <si>
+    <t>EmailWithoutDomain</t>
+  </si>
+  <si>
+    <t>NumberWithLetters</t>
+  </si>
+  <si>
+    <t>NumberEightDigits</t>
+  </si>
+  <si>
+    <t>AlphabeticInputName</t>
+  </si>
+  <si>
+    <t>NumericInputName</t>
+  </si>
+  <si>
+    <t>AlphaNumericInputName</t>
+  </si>
+  <si>
+    <t>ZoneCo</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>InvalidUserName</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>UserManagementPageRole</t>
+  </si>
+  <si>
+    <t>UsernameInUNPage</t>
+  </si>
+  <si>
+    <t>UNOriginal</t>
+  </si>
+  <si>
+    <t>PwdOriginal</t>
+  </si>
+  <si>
+    <t>User_UserManagment</t>
+  </si>
+  <si>
+    <t>Ahuja</t>
+  </si>
+  <si>
+    <t>ahuja@gmail.com</t>
+  </si>
+  <si>
+    <t>NewrolePlaywright</t>
+  </si>
+  <si>
+    <t>Head office</t>
+  </si>
+  <si>
+    <t>Zone/CO</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>kishangmail.com</t>
+  </si>
+  <si>
+    <t>kishan@</t>
+  </si>
+  <si>
+    <t>AbCd</t>
+  </si>
+  <si>
+    <t>Mahalinga</t>
+  </si>
+  <si>
+    <t>John1234</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>InvalidUser</t>
+  </si>
+  <si>
+    <t>Indore I</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>IBU0001192</t>
+  </si>
+  <si>
+    <t>IBU0001195</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +367,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,10 +448,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -352,8 +491,34 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -926,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,4 +1140,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="19">
+        <v>8089889900</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="19">
+        <v>90089257</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>12345</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Z2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationBeacon\GitHub_Beacon_FCM_Master\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61D751-C645-4FBF-A4C3-6BB0101AF39E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A06B00-F0A6-4E60-8B21-DDB5FEFC71AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
+    <sheet name="AddNewAgent" sheetId="7" r:id="rId1"/>
+    <sheet name="Disposition_master" sheetId="3" r:id="rId2"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId3"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId4"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>Run</t>
   </si>
@@ -830,6 +831,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379A03F-0BDE-4AFB-B2D4-4C2EF4A1030A}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -837,31 +999,31 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -923,7 +1085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -990,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -998,20 +1160,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1087,7 +1249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1095,15 +1257,15 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1142,41 +1304,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1418,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61D751-C645-4FBF-A4C3-6BB0101AF39E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DEC72-2FB7-4454-BC50-BFD0A1F8B6DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
     <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
     <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
     <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>Run</t>
   </si>
@@ -338,6 +339,12 @@
   </si>
   <si>
     <t>test@123</t>
+  </si>
+  <si>
+    <t>Jacob thomas</t>
+  </si>
+  <si>
+    <t>jacobtho@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -452,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -515,6 +522,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,7 +1165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1344,4 +1365,77 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="20">
+        <v>8089889900</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C19478ED-D9C8-4F47-8F0B-F1D58C09B34B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61D751-C645-4FBF-A4C3-6BB0101AF39E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11850" windowHeight="2910" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
     <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
     <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
     <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
+    <sheet name="CallCentre" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="D1:M9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t>Run</t>
   </si>
@@ -339,11 +335,26 @@
   <si>
     <t>test@123</t>
   </si>
+  <si>
+    <t>callcentreyou</t>
+  </si>
+  <si>
+    <t>CallCentre_UserManagment</t>
+  </si>
+  <si>
+    <t>ExecutiveID</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>callcentreyou@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -452,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -515,6 +526,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -830,38 +850,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -923,7 +943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -991,27 +1011,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1088,22 +1108,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1143,40 +1163,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1338,10 +1360,141 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Z2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="Z2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="28">
+        <v>8080</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="28">
+        <v>9876756456</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajith.krishna\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11850" windowHeight="2910" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12165" windowHeight="2175" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <sheet name="CallCentre" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="D1:M9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -336,9 +340,6 @@
     <t>test@123</t>
   </si>
   <si>
-    <t>callcentreyou</t>
-  </si>
-  <si>
     <t>CallCentre_UserManagment</t>
   </si>
   <si>
@@ -348,7 +349,10 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>callcentreyou@gmail.com</t>
+    <t>Agenthree</t>
+  </si>
+  <si>
+    <t>callceytu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1377,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1391,7 @@
     <col min="7" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>5</v>
@@ -1404,7 +1408,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>58</v>
@@ -1470,24 +1474,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="28">
-        <v>8080</v>
+        <v>5521</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="28">
-        <v>9876756456</v>
+        <v>9876756444</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -349,10 +349,10 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Agenthree</t>
-  </si>
-  <si>
-    <t>callceytu@gmail.com</t>
+    <t>Agent Four</t>
+  </si>
+  <si>
+    <t>caldlceytu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1482,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="28">
-        <v>5521</v>
+        <v>4477</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>102</v>
@@ -1491,7 +1491,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="28">
-        <v>9876756444</v>
+        <v>9876756422</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -349,10 +349,10 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Agent Four</t>
-  </si>
-  <si>
-    <t>caldlceytu@gmail.com</t>
+    <t>Agent Six</t>
+  </si>
+  <si>
+    <t>caldlcyuimytu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1482,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="28">
-        <v>4477</v>
+        <v>2332</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>102</v>
@@ -1491,7 +1491,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="28">
-        <v>9876756422</v>
+        <v>9876756533</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -17,6 +17,7 @@
     <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
     <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
     <sheet name="CallCentre" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>Run</t>
   </si>
@@ -349,10 +350,47 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Agent Six</t>
-  </si>
-  <si>
-    <t>caldlcyuimytu@gmail.com</t>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>Invalid Phone</t>
+  </si>
+  <si>
+    <t>caldlcyuimttntu@gmail.com</t>
+  </si>
+  <si>
+    <t>Agent Dup</t>
+  </si>
+  <si>
+    <t>Dup</t>
+  </si>
+  <si>
+    <t>Agent Zuu</t>
+  </si>
+  <si>
+    <t>dfdfdf5555.y</t>
+  </si>
+  <si>
+    <t>NameDup</t>
+  </si>
+  <si>
+    <t>EmailDup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caldlcya5frrren5iu@gmail.com
+</t>
+  </si>
+  <si>
+    <t>PhoneDup</t>
+  </si>
+  <si>
+    <t>ExecutiveIDDup</t>
+  </si>
+  <si>
+    <t>Agent Zuiii</t>
+  </si>
+  <si>
+    <t>calcya55frrtn5iu@mail.com</t>
   </si>
 </sst>
 </file>
@@ -467,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,6 +577,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1374,24 +1415,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="28"/>
-    <col min="2" max="2" width="14.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="28" customWidth="1"/>
+    <col min="2" max="3" width="30.5703125" style="28" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="28"/>
+    <col min="5" max="5" width="30.28515625" style="28" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" style="28" customWidth="1"/>
+    <col min="8" max="12" width="20" style="28" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1411,70 +1453,85 @@
         <v>101</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
@@ -1482,23 +1539,99 @@
         <v>99</v>
       </c>
       <c r="C2" s="28">
-        <v>2332</v>
+        <v>544</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F2" s="28">
-        <v>9876756533</v>
+        <v>1252351556</v>
+      </c>
+      <c r="G2" s="28">
+        <v>55763515565</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="28">
+        <v>5522351215</v>
+      </c>
+      <c r="L2" s="28">
+        <v>501222</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="28">
+        <v>5555</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DEC72-2FB7-4454-BC50-BFD0A1F8B6DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA05E5B-7AE5-4087-B12B-3E73BD609970}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -341,10 +341,10 @@
     <t>test@123</t>
   </si>
   <si>
-    <t>Jacob thomas</t>
-  </si>
-  <si>
-    <t>jacobtho@gmail.com</t>
+    <t>Doctor strange</t>
+  </si>
+  <si>
+    <t>docstra@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -350,12 +350,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Invalid Email</t>
-  </si>
-  <si>
-    <t>Invalid Phone</t>
-  </si>
-  <si>
     <t>caldlcyuimttntu@gmail.com</t>
   </si>
   <si>
@@ -387,10 +381,16 @@
     <t>ExecutiveIDDup</t>
   </si>
   <si>
-    <t>Agent Zuiii</t>
-  </si>
-  <si>
-    <t>calcya55frrtn5iu@mail.com</t>
+    <t>InvalidEmail</t>
+  </si>
+  <si>
+    <t>InvalidPhone</t>
+  </si>
+  <si>
+    <t>Agent iui</t>
+  </si>
+  <si>
+    <t>calcya55friu@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,22 +1453,22 @@
         <v>101</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>112</v>
-      </c>
       <c r="L1" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>59</v>
@@ -1539,7 +1539,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="28">
-        <v>544</v>
+        <v>544556566</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>114</v>
@@ -1548,19 +1548,19 @@
         <v>115</v>
       </c>
       <c r="F2" s="28">
-        <v>1252351556</v>
+        <v>5562351552</v>
       </c>
       <c r="G2" s="28">
         <v>55763515565</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K2" s="28">
         <v>5522351215</v>
@@ -1601,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>99</v>
@@ -1610,10 +1610,10 @@
         <v>5555</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t>Run</t>
   </si>
@@ -362,9 +362,6 @@
     <t>Agent Zuu</t>
   </si>
   <si>
-    <t>dfdfdf5555.y</t>
-  </si>
-  <si>
     <t>NameDup</t>
   </si>
   <si>
@@ -387,10 +384,16 @@
     <t>InvalidPhone</t>
   </si>
   <si>
-    <t>Agent iui</t>
-  </si>
-  <si>
-    <t>calcya55friu@mail.com</t>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>cafffffff@mail.com</t>
+  </si>
+  <si>
+    <t>dfdfdf55.y</t>
+  </si>
+  <si>
+    <t>55g763515565</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,22 +1456,22 @@
         <v>101</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>108</v>
-      </c>
       <c r="K1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>59</v>
@@ -1539,28 +1542,28 @@
         <v>99</v>
       </c>
       <c r="C2" s="28">
-        <v>544556566</v>
+        <v>565</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="28">
+        <v>5273591497</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="F2" s="28">
-        <v>5562351552</v>
-      </c>
-      <c r="G2" s="28">
-        <v>55763515565</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>105</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" s="28">
         <v>5522351215</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationBeacon\GitHub_Beacon_FCM_Master\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A06B00-F0A6-4E60-8B21-DDB5FEFC71AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50181411-C936-49C6-B075-587E422ACE87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddNewAgent" sheetId="7" r:id="rId1"/>
-    <sheet name="Disposition_master" sheetId="3" r:id="rId2"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId3"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId4"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId5"/>
+    <sheet name="CallCenter" sheetId="8" r:id="rId1"/>
+    <sheet name="AddNewAgent" sheetId="7" r:id="rId2"/>
+    <sheet name="Disposition_master" sheetId="3" r:id="rId3"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId4"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId5"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>Run</t>
   </si>
@@ -339,6 +340,9 @@
   </si>
   <si>
     <t>test@123</t>
+  </si>
+  <si>
+    <t>CallCenter</t>
   </si>
 </sst>
 </file>
@@ -831,11 +835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379A03F-0BDE-4AFB-B2D4-4C2EF4A1030A}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F517E78-C56E-4BE3-9931-79EB46E4990E}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,25 +848,9 @@
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
@@ -875,116 +863,18 @@
       <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="D2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,6 +882,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379A03F-0BDE-4AFB-B2D4-4C2EF4A1030A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -1152,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1249,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1304,7 +1243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megha.zarkar\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61D751-C645-4FBF-A4C3-6BB0101AF39E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CDE48C-DC22-440D-AF1F-518FA1D33DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16050" windowHeight="3780" tabRatio="597" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
+    <sheet name="Login_banner_confi" sheetId="8" r:id="rId1"/>
+    <sheet name="Disposition_master" sheetId="3" r:id="rId2"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId3"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId4"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
   <si>
     <t>Run</t>
   </si>
@@ -247,15 +249,6 @@
     <t>NumberEightDigits</t>
   </si>
   <si>
-    <t>AlphabeticInputName</t>
-  </si>
-  <si>
-    <t>NumericInputName</t>
-  </si>
-  <si>
-    <t>AlphaNumericInputName</t>
-  </si>
-  <si>
     <t>ZoneCo</t>
   </si>
   <si>
@@ -338,6 +331,102 @@
   </si>
   <si>
     <t>test@123</t>
+  </si>
+  <si>
+    <t>AlphaNumericInput</t>
+  </si>
+  <si>
+    <t>Login_banner_confi</t>
+  </si>
+  <si>
+    <t>NumtName</t>
+  </si>
+  <si>
+    <t>nputName</t>
+  </si>
+  <si>
+    <t>TestAutomation1001</t>
+  </si>
+  <si>
+    <t>HeadingField</t>
+  </si>
+  <si>
+    <t>DetailField</t>
+  </si>
+  <si>
+    <t>Detailfield1link</t>
+  </si>
+  <si>
+    <t>Headerfield1link</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/</t>
+  </si>
+  <si>
+    <t>Link_1</t>
+  </si>
+  <si>
+    <t>Modifiedlink1</t>
+  </si>
+  <si>
+    <t>https://www.grammarly.com/</t>
+  </si>
+  <si>
+    <t>Header10</t>
+  </si>
+  <si>
+    <t>Detail10</t>
+  </si>
+  <si>
+    <t>CallCenterHeadingtext</t>
+  </si>
+  <si>
+    <t>CallCenterDetailtext</t>
+  </si>
+  <si>
+    <t>CallCenterDetailLink1</t>
+  </si>
+  <si>
+    <t>https://www.zoho.com/calendar/personal-calendar.html</t>
+  </si>
+  <si>
+    <t>CallCenterHeaderLink1</t>
+  </si>
+  <si>
+    <t>CallCentre01</t>
+  </si>
+  <si>
+    <t>CallCenterModifiedHeader</t>
+  </si>
+  <si>
+    <t>CallCenterModifiedDetail</t>
+  </si>
+  <si>
+    <t>CallCentre</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/</t>
+  </si>
+  <si>
+    <t>AgencyUserHeader1</t>
+  </si>
+  <si>
+    <t>AgencyUserDetail1</t>
+  </si>
+  <si>
+    <t>AgencyHeader1</t>
+  </si>
+  <si>
+    <t>AgencyDetails1</t>
+  </si>
+  <si>
+    <t>AgencyUpdatedHeader1</t>
+  </si>
+  <si>
+    <t>AgencyUpdatedDetail1</t>
+  </si>
+  <si>
+    <t>Agency header_1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -515,6 +604,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -830,38 +937,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B96A424-403E-4AFF-A0B1-66754F421E3B}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="29" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{D27CA4DC-DA2A-4D0C-B827-EC20B413DB73}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{D963CC3E-5A70-4A75-BE61-2F2D816054E7}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{3AAEDCFB-544C-440B-95FB-43316F12D8E0}"/>
+    <hyperlink ref="R2" r:id="rId4" xr:uid="{8CB32D9B-99C5-4E49-A190-E25427AF09F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -923,7 +1182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -990,28 +1249,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1087,7 +1346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1095,15 +1354,15 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1142,41 +1401,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1223,117 +1484,117 @@
         <v>67</v>
       </c>
       <c r="P1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2" s="19">
         <v>8089889900</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="L2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="M2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="O2" s="19">
         <v>90089257</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="19">
         <v>12345</v>
       </c>
       <c r="R2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="Z2" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1344,4 +1605,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BD2CE4-FC5B-4B49-8E15-DE33886DCDDC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megha.zarkar\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CDE48C-DC22-440D-AF1F-518FA1D33DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8C9156C9-B44D-4941-A0DD-54D07F9C0E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16050" windowHeight="3780" tabRatio="597" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="3720" tabRatio="597" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_banner_confi" sheetId="8" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -360,9 +356,6 @@
     <t>Headerfield1link</t>
   </si>
   <si>
-    <t>https://www.w3schools.com/</t>
-  </si>
-  <si>
     <t>Link_1</t>
   </si>
   <si>
@@ -427,6 +420,9 @@
   </si>
   <si>
     <t>Agency header_1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
   </si>
 </sst>
 </file>
@@ -614,14 +610,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -940,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B96A424-403E-4AFF-A0B1-66754F421E3B}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,11 +946,11 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
@@ -988,37 +984,37 @@
         <v>103</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="M1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>118</v>
-      </c>
       <c r="O1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="21" t="s">
-        <v>122</v>
-      </c>
       <c r="Q1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="29" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1029,52 +1025,52 @@
         <v>2</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>100</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>108</v>
+      <c r="G2" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="M2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="O2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="27" t="s">
-        <v>124</v>
-      </c>
       <c r="Q2" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1083,6 +1079,7 @@
     <hyperlink ref="L2" r:id="rId2" xr:uid="{D963CC3E-5A70-4A75-BE61-2F2D816054E7}"/>
     <hyperlink ref="N2" r:id="rId3" xr:uid="{3AAEDCFB-544C-440B-95FB-43316F12D8E0}"/>
     <hyperlink ref="R2" r:id="rId4" xr:uid="{8CB32D9B-99C5-4E49-A190-E25427AF09F8}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{7B3B365C-A6FD-475D-BA81-BBA727EA0EB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA05E5B-7AE5-4087-B12B-3E73BD609970}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3289D280-07D1-47BF-80DB-D7921E7AC7D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13100" windowHeight="3770" firstSheet="3" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
     <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
     <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId5"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>Run</t>
   </si>
@@ -345,6 +346,12 @@
   </si>
   <si>
     <t>docstra@gmail.com</t>
+  </si>
+  <si>
+    <t>Collection Agency Agent management Add new agent and agent list</t>
+  </si>
+  <si>
+    <t>muthoot4</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1438,4 +1445,52 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3289D280-07D1-47BF-80DB-D7921E7AC7D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D06BBB0-280B-4F99-951F-F4F7D85B6694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13100" windowHeight="3770" firstSheet="3" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13100" windowHeight="3770" firstSheet="4" activeTab="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
     <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId5"/>
     <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId6"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
   <si>
     <t>Run</t>
   </si>
@@ -352,6 +353,30 @@
   </si>
   <si>
     <t>muthoot4</t>
+  </si>
+  <si>
+    <t>OutstandingBalanceOperator</t>
+  </si>
+  <si>
+    <t>OutstandingBalance</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>AllocateTo</t>
+  </si>
+  <si>
+    <t>SelectCallCentre</t>
+  </si>
+  <si>
+    <t>Core_Regularization_Summary</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>CallCentre 1</t>
   </si>
 </sst>
 </file>
@@ -466,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -541,6 +566,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1451,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1493,4 +1530,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27" style="28" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="28"/>
+    <col min="3" max="3" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="33">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D06BBB0-280B-4F99-951F-F4F7D85B6694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE538573-AE0A-4514-A4BE-9848B917F871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13100" windowHeight="3770" firstSheet="4" activeTab="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="5" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId5"/>
     <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId6"/>
     <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId7"/>
+    <sheet name="CollectionAgencyDispositionPage" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
   <si>
     <t>Run</t>
   </si>
@@ -377,6 +378,57 @@
   </si>
   <si>
     <t>CallCentre 1</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>SMACategory</t>
+  </si>
+  <si>
+    <t>NPACategory</t>
+  </si>
+  <si>
+    <t>DPDDaysOperator</t>
+  </si>
+  <si>
+    <t>DPDDays</t>
+  </si>
+  <si>
+    <t>NextActionOwner</t>
+  </si>
+  <si>
+    <t>SubDisposition</t>
+  </si>
+  <si>
+    <t>NextActionDate</t>
+  </si>
+  <si>
+    <t>CommittedAmount</t>
+  </si>
+  <si>
+    <t>CollectionAgencyDispositionPage</t>
+  </si>
+  <si>
+    <t>Not Allocated</t>
+  </si>
+  <si>
+    <t>SMA 0 (01-30 Days)</t>
+  </si>
+  <si>
+    <t>SUB-STANDARD</t>
+  </si>
+  <si>
+    <t>Mumbai I</t>
+  </si>
+  <si>
+    <t>Collection Agency</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Not able to pay</t>
   </si>
 </sst>
 </file>
@@ -491,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -578,6 +630,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1536,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1600,4 +1670,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="37"/>
+    <col min="3" max="3" width="22.90625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
+    <col min="5" max="18" width="8.7265625" style="37"/>
+    <col min="19" max="19" width="18.7265625" style="37" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="38">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="38">
+        <v>10</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>11</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="38">
+        <v>1000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE538573-AE0A-4514-A4BE-9848B917F871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA77C4-655C-44E5-B69F-13DAD330B515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="5" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId6"/>
     <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId7"/>
     <sheet name="CollectionAgencyDispositionPage" sheetId="10" r:id="rId8"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="132">
   <si>
     <t>Run</t>
   </si>
@@ -429,6 +430,18 @@
   </si>
   <si>
     <t>Not able to pay</t>
+  </si>
+  <si>
+    <t>AcountType</t>
+  </si>
+  <si>
+    <t>FromAndToDates</t>
+  </si>
+  <si>
+    <t>CollectionAgencyAgentAcAllocatPage</t>
+  </si>
+  <si>
+    <t>Allocated</t>
   </si>
 </sst>
 </file>
@@ -543,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -649,6 +662,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1676,15 +1704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="37" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="37"/>
-    <col min="3" max="3" width="22.90625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="14" style="37" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
     <col min="5" max="18" width="8.7265625" style="37"/>
     <col min="19" max="19" width="18.7265625" style="37" customWidth="1"/>
@@ -1800,13 +1828,102 @@
         <v>127</v>
       </c>
       <c r="Q2" s="40">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R2" s="38" t="s">
         <v>41</v>
       </c>
       <c r="S2" s="38">
         <v>1000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="44">
+        <v>10</v>
+      </c>
+      <c r="J2" s="47">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA77C4-655C-44E5-B69F-13DAD330B515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4BF013-F6E5-4B99-B1F9-B346A8DA604F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId5"/>
     <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId6"/>
     <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId7"/>
-    <sheet name="CollectionAgencyDispositionPage" sheetId="10" r:id="rId8"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId8"/>
     <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1828,7 +1828,7 @@
         <v>127</v>
       </c>
       <c r="Q2" s="40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="38" t="s">
         <v>41</v>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1923,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="47">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4BF013-F6E5-4B99-B1F9-B346A8DA604F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CF14A9-A914-4ED6-A308-BB1854791BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="7" activeTab="9" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId7"/>
     <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId8"/>
     <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId9"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>Run</t>
   </si>
@@ -442,6 +443,96 @@
   </si>
   <si>
     <t>Allocated</t>
+  </si>
+  <si>
+    <t>HeadingField</t>
+  </si>
+  <si>
+    <t>DetailField</t>
+  </si>
+  <si>
+    <t>AlphaNumericInput</t>
+  </si>
+  <si>
+    <t>Headerfield1link</t>
+  </si>
+  <si>
+    <t>Detailfield1link</t>
+  </si>
+  <si>
+    <t>Modifiedlink1</t>
+  </si>
+  <si>
+    <t>CallCenterHeadingtext</t>
+  </si>
+  <si>
+    <t>CallCenterDetailtext</t>
+  </si>
+  <si>
+    <t>CallCenterHeaderLink1</t>
+  </si>
+  <si>
+    <t>CallCenterDetailLink1</t>
+  </si>
+  <si>
+    <t>CallCenterModifiedHeader</t>
+  </si>
+  <si>
+    <t>CallCenterModifiedDetail</t>
+  </si>
+  <si>
+    <t>AgencyUserHeader1</t>
+  </si>
+  <si>
+    <t>AgencyUserDetail1</t>
+  </si>
+  <si>
+    <t>AgencyUpdatedHeader1</t>
+  </si>
+  <si>
+    <t>AgencyUpdatedDetail1</t>
+  </si>
+  <si>
+    <t>Login_banner_confi</t>
+  </si>
+  <si>
+    <t>Header10</t>
+  </si>
+  <si>
+    <t>Detail10</t>
+  </si>
+  <si>
+    <t>TestAutomation1001</t>
+  </si>
+  <si>
+    <t>Link_1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>https://www.grammarly.com/</t>
+  </si>
+  <si>
+    <t>CallCentre01</t>
+  </si>
+  <si>
+    <t>https://www.zoho.com/calendar/personal-calendar.html</t>
+  </si>
+  <si>
+    <t>CallCentre</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/</t>
+  </si>
+  <si>
+    <t>AgencyHeader1</t>
+  </si>
+  <si>
+    <t>AgencyDetails1</t>
+  </si>
+  <si>
+    <t>Agency header_1</t>
   </si>
 </sst>
 </file>
@@ -556,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -677,6 +768,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1151,6 +1257,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{8328FD81-C02A-4C0F-950B-6B9A8614EF57}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{286913B0-9B53-4832-AC16-513CA5856665}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{1F70C33F-508E-437B-84BC-4B0B4B5ED4E3}"/>
+    <hyperlink ref="R2" r:id="rId4" xr:uid="{34D533E6-04E8-488B-BF9A-CA683DEE4EB3}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{E9AEAAD2-9D32-47F8-BBE3-33FF8277F014}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
@@ -1846,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,20 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8C9156C9-B44D-4941-A0DD-54D07F9C0E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megha.zarkar\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B220B-004F-4CEB-9091-A4AD7C6E66F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="3720" tabRatio="597" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15930" windowHeight="2805" tabRatio="597" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_banner_confi" sheetId="8" r:id="rId1"/>
     <sheet name="Disposition_master" sheetId="3" r:id="rId2"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId3"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId4"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Agency_Account_Allocation" sheetId="10" r:id="rId3"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId4"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId5"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
   <si>
     <t>Run</t>
   </si>
@@ -423,6 +428,12 @@
   </si>
   <si>
     <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>DPD</t>
+  </si>
+  <si>
+    <t>Agency_Account_Allocation</t>
   </si>
 </sst>
 </file>
@@ -936,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B96A424-403E-4AFF-A0B1-66754F421E3B}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1028,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="29" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="29" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>97</v>
       </c>
@@ -1089,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -1247,11 +1258,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ABB169-42AE-4B07-BC37-495C3DAF74AB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1398,7 +1451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1604,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BD2CE4-FC5B-4B49-8E15-DE33886DCDDC}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CF14A9-A914-4ED6-A308-BB1854791BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D8F08E-5A7A-43FB-A829-8C4FFB43C3B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="7" activeTab="9" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
-    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId5"/>
-    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId6"/>
-    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId7"/>
-    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId8"/>
-    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId9"/>
-    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId10"/>
+    <sheet name="CallCentreRoleManagement" sheetId="13" r:id="rId2"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId3"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId4"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId5"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId6"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId7"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId8"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId9"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId10"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="164">
   <si>
     <t>Run</t>
   </si>
@@ -533,6 +534,12 @@
   </si>
   <si>
     <t>Agency header_1</t>
+  </si>
+  <si>
+    <t>CallCenter</t>
+  </si>
+  <si>
+    <t>yuki4</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1108,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,10 +1265,99 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="44">
+        <v>10</v>
+      </c>
+      <c r="J2" s="47">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1412,6 +1508,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFAB67-A0F2-4F57-B685-B5FFC2EC3004}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1508,7 +1647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1563,7 +1702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1769,7 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1842,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1890,7 +2029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1960,7 +2099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -2100,93 +2239,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="44">
-        <v>10</v>
-      </c>
-      <c r="J2" s="47">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D8F08E-5A7A-43FB-A829-8C4FFB43C3B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B56C2C6-A0C1-4A7D-A08C-337F2A87FF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
     <sheet name="CallCentreRoleManagement" sheetId="13" r:id="rId2"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId3"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId4"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId5"/>
-    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId6"/>
-    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId7"/>
-    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId8"/>
-    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId9"/>
-    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId10"/>
-    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId11"/>
+    <sheet name="CoreAlertsPlaceholderManagement" sheetId="14" r:id="rId3"/>
+    <sheet name="AlertsTemplateManagement" sheetId="15" r:id="rId4"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId5"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId6"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId7"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId8"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId9"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId10"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId11"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId12"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="184">
   <si>
     <t>Run</t>
   </si>
@@ -540,6 +542,66 @@
   </si>
   <si>
     <t>yuki4</t>
+  </si>
+  <si>
+    <t>CoreAlertsPlaceholderManagement</t>
+  </si>
+  <si>
+    <t>NotificationType</t>
+  </si>
+  <si>
+    <t>CurrentStatus</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>NotificationTypefortemplatecreation</t>
+  </si>
+  <si>
+    <t>InitialStatusfortemplatecreation</t>
+  </si>
+  <si>
+    <t>Categoryfortemplatecreation</t>
+  </si>
+  <si>
+    <t>TemplateNamefortemplatecreation</t>
+  </si>
+  <si>
+    <t>TemplateBody</t>
+  </si>
+  <si>
+    <t>EditInitialStatusfortemplatemodify</t>
+  </si>
+  <si>
+    <t>EditReason</t>
+  </si>
+  <si>
+    <t>AlertsTemplateManagement</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Automation testing improves software quality by identifying defects early. Selenium with Java helps in UI testing, ensuring reliability and efficiency in development.</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -582,7 +644,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +660,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -789,6 +857,23 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1265,6 +1350,218 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27" style="28" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="28"/>
+    <col min="3" max="3" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="33">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="37"/>
+    <col min="3" max="3" width="14" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
+    <col min="5" max="18" width="8.7265625" style="37"/>
+    <col min="19" max="19" width="18.7265625" style="37" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="38">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="38">
+        <v>10</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>18</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="38">
+        <v>1000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1353,7 +1650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -1511,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFAB67-A0F2-4F57-B685-B5FFC2EC3004}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1551,6 +1848,135 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B87CED1-ADCF-4939-B0CC-BC7CD7B25447}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D56B6-4C74-412E-B95B-21C862046E92}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="10" max="10" width="65.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1647,7 +2073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1702,7 +2128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1908,7 +2334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1981,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2027,216 +2453,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27" style="28" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28"/>
-    <col min="3" max="3" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="33">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="37"/>
-    <col min="3" max="3" width="14" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
-    <col min="5" max="18" width="8.7265625" style="37"/>
-    <col min="19" max="19" width="18.7265625" style="37" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="38">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="38">
-        <v>10</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="40">
-        <v>18</v>
-      </c>
-      <c r="R2" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="38">
-        <v>1000000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B56C2C6-A0C1-4A7D-A08C-337F2A87FF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31094F2-7271-4E83-889D-714B45E119EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="3" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
     <sheet name="CallCentreRoleManagement" sheetId="13" r:id="rId2"/>
     <sheet name="CoreAlertsPlaceholderManagement" sheetId="14" r:id="rId3"/>
     <sheet name="AlertsTemplateManagement" sheetId="15" r:id="rId4"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId5"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId6"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId7"/>
-    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId8"/>
-    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId9"/>
-    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId10"/>
-    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId11"/>
-    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId12"/>
-    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId13"/>
+    <sheet name="AlertsNotificationManagement" sheetId="16" r:id="rId5"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId6"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId7"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId8"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId9"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId10"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId11"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId12"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId13"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="187">
   <si>
     <t>Run</t>
   </si>
@@ -602,6 +603,15 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>ScheduleType</t>
+  </si>
+  <si>
+    <t>AlertsNotificationManagement</t>
+  </si>
+  <si>
+    <t>One Time</t>
   </si>
 </sst>
 </file>
@@ -1350,6 +1360,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1419,7 +1477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1561,7 +1619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1650,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -1885,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D56B6-4C74-412E-B95B-21C862046E92}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1977,6 +2035,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF55B7-F436-43C5-9963-D938C7EFC65D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2073,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2128,7 +2227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -2334,7 +2433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2405,52 +2504,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31094F2-7271-4E83-889D-714B45E119EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B881E1A-AB50-436D-A423-31BD014A96C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="3" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="4" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="CoreAlertsPlaceholderManagement" sheetId="14" r:id="rId3"/>
     <sheet name="AlertsTemplateManagement" sheetId="15" r:id="rId4"/>
     <sheet name="AlertsNotificationManagement" sheetId="16" r:id="rId5"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId6"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId7"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId8"/>
-    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId9"/>
-    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId10"/>
-    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId11"/>
-    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId12"/>
-    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId13"/>
-    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId14"/>
+    <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="17" r:id="rId6"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId7"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId8"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId9"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId10"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId11"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId12"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId13"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId14"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="195">
   <si>
     <t>Run</t>
   </si>
@@ -612,6 +613,30 @@
   </si>
   <si>
     <t>One Time</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Status2</t>
+  </si>
+  <si>
+    <t>CoreAlertsMaskAcAndMaskingAutho</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Email 2</t>
+  </si>
+  <si>
+    <t>Unmask</t>
   </si>
 </sst>
 </file>
@@ -1360,6 +1385,79 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="20">
+        <v>8089889900</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C19478ED-D9C8-4F47-8F0B-F1D58C09B34B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1407,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1477,7 +1575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1619,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1708,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -2038,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF55B7-F436-43C5-9963-D938C7EFC65D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2076,6 +2174,76 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08976CF2-4030-41C6-895D-319E753EDB55}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="56">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2172,7 +2340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2227,7 +2395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -2431,77 +2599,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="20">
-        <v>8089889900</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C19478ED-D9C8-4F47-8F0B-F1D58C09B34B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megha.zarkar\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B220B-004F-4CEB-9091-A4AD7C6E66F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5438D6-52F7-4C91-974F-82DB4982F06F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15930" windowHeight="2805" tabRatio="597" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15930" windowHeight="2805" tabRatio="597" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_banner_confi" sheetId="8" r:id="rId1"/>
     <sheet name="Disposition_master" sheetId="3" r:id="rId2"/>
     <sheet name="Agency_Account_Allocation" sheetId="10" r:id="rId3"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId4"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId5"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="ViewTemplateList" sheetId="11" r:id="rId4"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId5"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId6"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
   <si>
     <t>Run</t>
   </si>
@@ -434,6 +435,21 @@
   </si>
   <si>
     <t>Agency_Account_Allocation</t>
+  </si>
+  <si>
+    <t>View_Template_List</t>
+  </si>
+  <si>
+    <t>Template Name</t>
+  </si>
+  <si>
+    <t>Sample Template</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ABB169-42AE-4B07-BC37-495C3DAF74AB}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1316,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280FE8FD-D2BB-4A01-A509-A942B9BAD8DD}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1396,7 +1460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1451,7 +1515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1657,7 +1721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BD2CE4-FC5B-4B49-8E15-DE33886DCDDC}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B881E1A-AB50-436D-A423-31BD014A96C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04CF3EC-8F86-4D43-8FE5-9CC5ED917663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="4" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,17 @@
     <sheet name="AlertsTemplateManagement" sheetId="15" r:id="rId4"/>
     <sheet name="AlertsNotificationManagement" sheetId="16" r:id="rId5"/>
     <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="17" r:id="rId6"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId7"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId8"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId9"/>
-    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId10"/>
-    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId11"/>
-    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId12"/>
-    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId13"/>
-    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId14"/>
-    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId15"/>
+    <sheet name="AgentAccountAllocation" sheetId="18" r:id="rId7"/>
+    <sheet name="CoreBankAllocationSummary" sheetId="19" r:id="rId8"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId9"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId10"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId11"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId12"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId13"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId14"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId15"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId16"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="202">
   <si>
     <t>Run</t>
   </si>
@@ -637,6 +639,27 @@
   </si>
   <si>
     <t>Unmask</t>
+  </si>
+  <si>
+    <t>DPD</t>
+  </si>
+  <si>
+    <t>Agency_Account_Allocation</t>
+  </si>
+  <si>
+    <t>OsBalanceOperator</t>
+  </si>
+  <si>
+    <t>OsBalanceAmount</t>
+  </si>
+  <si>
+    <t>CoreBankAllocationSummary</t>
+  </si>
+  <si>
+    <t>Amaravati</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -757,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -909,6 +932,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1385,962 +1411,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="20">
-        <v>8089889900</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C19478ED-D9C8-4F47-8F0B-F1D58C09B34B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27" style="28" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28"/>
-    <col min="3" max="3" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="33">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="37"/>
-    <col min="3" max="3" width="14" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
-    <col min="5" max="18" width="8.7265625" style="37"/>
-    <col min="19" max="19" width="18.7265625" style="37" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="38">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="38">
-        <v>10</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="40">
-        <v>18</v>
-      </c>
-      <c r="R2" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="38">
-        <v>1000000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="44">
-        <v>10</v>
-      </c>
-      <c r="J2" s="47">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q1" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{8328FD81-C02A-4C0F-950B-6B9A8614EF57}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{286913B0-9B53-4832-AC16-513CA5856665}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{1F70C33F-508E-437B-84BC-4B0B4B5ED4E3}"/>
-    <hyperlink ref="R2" r:id="rId4" xr:uid="{34D533E6-04E8-488B-BF9A-CA683DEE4EB3}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{E9AEAAD2-9D32-47F8-BBE3-33FF8277F014}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFAB67-A0F2-4F57-B685-B5FFC2EC3004}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B87CED1-ADCF-4939-B0CC-BC7CD7B25447}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="42.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D56B6-4C74-412E-B95B-21C862046E92}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="10" max="10" width="65.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF55B7-F436-43C5-9963-D938C7EFC65D}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08976CF2-4030-41C6-895D-319E753EDB55}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="56">
-        <v>1234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1.23456789012345E+28</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.23123212312321E+24</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="12">
-        <v>18</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="17">
-        <v>45644</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2395,7 +1465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -2599,4 +1669,1083 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="20">
+        <v>8089889900</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C19478ED-D9C8-4F47-8F0B-F1D58C09B34B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27" style="28" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="28"/>
+    <col min="3" max="3" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="33">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="37"/>
+    <col min="3" max="3" width="14" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
+    <col min="5" max="18" width="8.7265625" style="37"/>
+    <col min="19" max="19" width="18.7265625" style="37" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="38">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="38">
+        <v>10</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>18</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="38">
+        <v>1000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="44">
+        <v>10</v>
+      </c>
+      <c r="J2" s="47">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{8328FD81-C02A-4C0F-950B-6B9A8614EF57}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{286913B0-9B53-4832-AC16-513CA5856665}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{1F70C33F-508E-437B-84BC-4B0B4B5ED4E3}"/>
+    <hyperlink ref="R2" r:id="rId4" xr:uid="{34D533E6-04E8-488B-BF9A-CA683DEE4EB3}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{E9AEAAD2-9D32-47F8-BBE3-33FF8277F014}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFAB67-A0F2-4F57-B685-B5FFC2EC3004}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B87CED1-ADCF-4939-B0CC-BC7CD7B25447}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D56B6-4C74-412E-B95B-21C862046E92}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="10" max="10" width="65.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF55B7-F436-43C5-9963-D938C7EFC65D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08976CF2-4030-41C6-895D-319E753EDB55}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="56">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109F5396-AEFE-4B69-A083-6662A47FD65A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCD7318-A5F3-4498-8096-038B67B25CA0}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="56">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.23456789012345E+28</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1.23123212312321E+24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="12">
+        <v>18</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="17">
+        <v>45644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04CF3EC-8F86-4D43-8FE5-9CC5ED917663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41196FA-0FD0-45A6-8F65-52C407E9B374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="17" r:id="rId6"/>
     <sheet name="AgentAccountAllocation" sheetId="18" r:id="rId7"/>
     <sheet name="CoreBankAllocationSummary" sheetId="19" r:id="rId8"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId9"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId10"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId11"/>
-    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId12"/>
-    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId13"/>
-    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId14"/>
-    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId15"/>
-    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId16"/>
-    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId17"/>
+    <sheet name="CoreBankRegularizationSummary" sheetId="20" r:id="rId9"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId10"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId11"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId12"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId13"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId14"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId15"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId16"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId17"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="203">
   <si>
     <t>Run</t>
   </si>
@@ -660,6 +661,9 @@
   </si>
   <si>
     <t>&lt;</t>
+  </si>
+  <si>
+    <t>CoreBankRegularizationSummary</t>
   </si>
 </sst>
 </file>
@@ -1411,6 +1415,103 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.23456789012345E+28</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1.23123212312321E+24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="12">
+        <v>18</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="17">
+        <v>45644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1465,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1671,7 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1744,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1792,7 +1893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1862,7 +1963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -2004,7 +2105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2093,7 +2194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -2574,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCD7318-A5F3-4498-8096-038B67B25CA0}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2654,98 +2755,49 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6993FB2D-6400-4A1B-8C97-912FD43C6B86}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1.23456789012345E+28</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1.23123212312321E+24</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="12">
-        <v>18</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="17">
-        <v>45644</v>
+      <c r="C2" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationBeacon\GitHub_Beacon_FCM_Master\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50181411-C936-49C6-B075-587E422ACE87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED921E10-F0C6-4553-904B-13D2DA461FAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="CallCenter" sheetId="8" r:id="rId1"/>
-    <sheet name="AddNewAgent" sheetId="7" r:id="rId2"/>
-    <sheet name="Disposition_master" sheetId="3" r:id="rId3"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId4"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId5"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId6"/>
+    <sheet name="AddAgency" sheetId="9" r:id="rId2"/>
+    <sheet name="AddNewAgent" sheetId="7" r:id="rId3"/>
+    <sheet name="Disposition_master" sheetId="3" r:id="rId4"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId5"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId6"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>Run</t>
   </si>
@@ -344,6 +345,12 @@
   <si>
     <t>CallCenter</t>
   </si>
+  <si>
+    <t>CoreAddAgency</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +390,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -457,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -521,6 +534,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -839,7 +853,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,11 +896,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687623D0-D57B-4166-B594-4AF2CAA6F773}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379A03F-0BDE-4AFB-B2D4-4C2EF4A1030A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -1091,7 +1154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1188,7 +1251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1243,7 +1306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megha.zarkar\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5438D6-52F7-4C91-974F-82DB4982F06F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0568BC54-0D02-479D-BEDB-03AAA2EEDE52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15930" windowHeight="2805" tabRatio="597" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
   <si>
     <t>Run</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Yes,No</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280FE8FD-D2BB-4A01-A509-A942B9BAD8DD}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,9 +1334,10 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -1343,8 +1350,11 @@
       <c r="D1" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="E1" s="21" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>130</v>
       </c>
@@ -1356,6 +1366,9 @@
       </c>
       <c r="D2" s="22" t="s">
         <v>134</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41196FA-0FD0-45A6-8F65-52C407E9B374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D4C6A-12E4-41C7-97BA-78E9924E4260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -173,24 +173,6 @@
     <t>Interactiondetailsdate</t>
   </si>
   <si>
-    <t>Jake3</t>
-  </si>
-  <si>
-    <t>Grill3</t>
-  </si>
-  <si>
-    <t>Jim3</t>
-  </si>
-  <si>
-    <t>Beam3</t>
-  </si>
-  <si>
-    <t>Garvich3</t>
-  </si>
-  <si>
-    <t>Dasthan3</t>
-  </si>
-  <si>
     <t>Role Name</t>
   </si>
   <si>
@@ -664,6 +646,24 @@
   </si>
   <si>
     <t>CoreBankRegularizationSummary</t>
+  </si>
+  <si>
+    <t>deepson6</t>
+  </si>
+  <si>
+    <t>deepson7</t>
+  </si>
+  <si>
+    <t>deepson8</t>
+  </si>
+  <si>
+    <t>deepson9</t>
+  </si>
+  <si>
+    <t>deepson10</t>
+  </si>
+  <si>
+    <t>deepson11</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -809,9 +809,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1257,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,12 +1263,12 @@
     <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.81640625" bestFit="1" customWidth="1"/>
@@ -1358,22 +1355,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>48</v>
+        <v>197</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -1448,25 +1445,25 @@
       <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1477,31 +1474,31 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>1.23456789012345E+28</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>1.23123212312321E+24</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>18</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>45644</v>
       </c>
     </row>
@@ -1535,13 +1532,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1549,16 +1546,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1603,163 +1600,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="U1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="V1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="W1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="X1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="Z1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="E2" s="18">
+        <v>8089889900</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="H2" s="21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="I2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="L2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="M2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="19">
-        <v>8089889900</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="O2" s="18">
+        <v>90089257</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="Q2" s="18">
+        <v>12345</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="T2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="U2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="V2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="19">
-        <v>90089257</v>
-      </c>
-      <c r="P2" s="19" t="s">
+      <c r="W2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="19">
-        <v>12345</v>
-      </c>
-      <c r="R2" s="20" t="s">
+      <c r="X2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="Y2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="Z2" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1791,50 +1788,50 @@
     <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+    </row>
+    <row r="2" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="20">
+        <v>93</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="19">
         <v>8089889900</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>85</v>
+      <c r="E2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1861,31 +1858,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>101</v>
+      <c r="B2" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1903,59 +1900,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" style="28" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28"/>
-    <col min="3" max="3" width="25.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="28"/>
+    <col min="1" max="1" width="27" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="27"/>
+    <col min="3" max="3" width="25.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D2" s="32">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="33">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1973,130 +1970,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="37"/>
-    <col min="3" max="3" width="14" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="37" customWidth="1"/>
-    <col min="5" max="18" width="8.7265625" style="37"/>
-    <col min="19" max="19" width="18.7265625" style="37" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="37"/>
+    <col min="1" max="1" width="21" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="36"/>
+    <col min="3" max="3" width="14" style="36" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="36" customWidth="1"/>
+    <col min="5" max="18" width="8.7265625" style="36"/>
+    <col min="19" max="19" width="18.7265625" style="36" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D2" s="37">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="I2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="36" t="s">
+      <c r="J2" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="K2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="36" t="s">
+      <c r="L2" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="37">
+        <v>10</v>
+      </c>
+      <c r="N2" s="38" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="O2" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="38">
-        <v>25000</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="39" t="s">
+      <c r="P2" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="38">
-        <v>10</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="39">
         <v>18</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="37">
         <v>1000000000</v>
       </c>
     </row>
@@ -2126,66 +2123,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="45" t="s">
+      <c r="C1" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="44">
+      <c r="D2" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="43">
         <v>10</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="46">
         <v>18</v>
       </c>
     </row>
@@ -2225,115 +2222,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="N1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="O1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="P1" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="Q1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="R1" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="42" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="D2" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="E2" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="F2" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="G2" s="49" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="H2" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="I2" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="J2" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="M2" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="N2" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="O2" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="P2" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="Q2" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>154</v>
+      <c r="R2" s="50" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2359,31 +2356,31 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2405,18 +2402,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2440,79 +2437,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="J1" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="K1" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="57" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="B2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="D2" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="E2" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="G2" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="K2" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>181</v>
+      <c r="L2" s="55" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2535,25 +2532,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>184</v>
+      <c r="C1" s="56" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>186</v>
+      <c r="C2" s="57" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2575,54 +2572,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="G2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="56">
+      <c r="H2" s="55">
         <v>1234</v>
       </c>
     </row>
@@ -2645,24 +2642,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
-        <v>195</v>
+      <c r="C1" s="53" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>250</v>
       </c>
     </row>
@@ -2692,61 +2689,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>106</v>
       </c>
+      <c r="E1" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="56">
+      <c r="D2" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="55">
         <v>10000</v>
       </c>
-      <c r="I2" s="58" t="s">
-        <v>74</v>
+      <c r="I2" s="57" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6993FB2D-6400-4A1B-8C97-912FD43C6B86}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2770,31 +2767,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>74</v>
+      <c r="C1" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>200</v>
+      <c r="C2" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationBeacon\GitHub_Beacon_FCM_Master\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED921E10-F0C6-4553-904B-13D2DA461FAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F7799A-7F7B-46D1-A3C9-489049C9B1E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="CallCenter" sheetId="8" r:id="rId1"/>
-    <sheet name="AddAgency" sheetId="9" r:id="rId2"/>
-    <sheet name="AddNewAgent" sheetId="7" r:id="rId3"/>
-    <sheet name="Disposition_master" sheetId="3" r:id="rId4"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId5"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId6"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId7"/>
+    <sheet name="AddAgencyList" sheetId="10" r:id="rId2"/>
+    <sheet name="AddAgency" sheetId="9" r:id="rId3"/>
+    <sheet name="AddNewAgent" sheetId="7" r:id="rId4"/>
+    <sheet name="Disposition_master" sheetId="3" r:id="rId5"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId6"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId7"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>Run</t>
   </si>
@@ -351,6 +352,15 @@
   <si>
     <t>Zone</t>
   </si>
+  <si>
+    <t>CoreAddAgencyList</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Update Adress</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +405,12 @@
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -470,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -535,6 +551,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -896,10 +913,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659BFA7-C6D0-4B60-A4EE-B5E1B75045A7}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687623D0-D57B-4166-B594-4AF2CAA6F773}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -944,7 +1020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379A03F-0BDE-4AFB-B2D4-4C2EF4A1030A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -993,7 +1069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -1154,7 +1230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1251,7 +1327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1306,7 +1382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D4C6A-12E4-41C7-97BA-78E9924E4260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF435B2F-E783-4804-B82F-BAFA25BCB864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="16" activeTab="18" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId16"/>
     <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId17"/>
     <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId18"/>
+    <sheet name="Call_Centre_Auto_Allocation" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
   <si>
     <t>Run</t>
   </si>
@@ -204,9 +205,6 @@
     </r>
   </si>
   <si>
-    <t>Newman19</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -345,9 +343,6 @@
     <t>Collection Agency Agent management Add new agent and agent list</t>
   </si>
   <si>
-    <t>muthoot4</t>
-  </si>
-  <si>
     <t>OutstandingBalanceOperator</t>
   </si>
   <si>
@@ -528,9 +523,6 @@
     <t>CallCenter</t>
   </si>
   <si>
-    <t>yuki4</t>
-  </si>
-  <si>
     <t>CoreAlertsPlaceholderManagement</t>
   </si>
   <si>
@@ -648,22 +640,85 @@
     <t>CoreBankRegularizationSummary</t>
   </si>
   <si>
-    <t>deepson6</t>
-  </si>
-  <si>
-    <t>deepson7</t>
-  </si>
-  <si>
-    <t>deepson8</t>
-  </si>
-  <si>
-    <t>deepson9</t>
-  </si>
-  <si>
-    <t>deepson10</t>
-  </si>
-  <si>
-    <t>deepson11</t>
+    <t>johnydep1</t>
+  </si>
+  <si>
+    <t>johnydep2</t>
+  </si>
+  <si>
+    <t>johnydep3</t>
+  </si>
+  <si>
+    <t>johnydep4</t>
+  </si>
+  <si>
+    <t>johnydep5</t>
+  </si>
+  <si>
+    <t>johnydep6</t>
+  </si>
+  <si>
+    <t>Johncena</t>
+  </si>
+  <si>
+    <t>diyan1</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>AllocatedTo</t>
+  </si>
+  <si>
+    <t>AllocationType</t>
+  </si>
+  <si>
+    <t>AllocationName</t>
+  </si>
+  <si>
+    <t>effectDate</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>ProcessingInterval</t>
+  </si>
+  <si>
+    <t>DownloadFile</t>
+  </si>
+  <si>
+    <t>DialerFile</t>
+  </si>
+  <si>
+    <t>InvalidMobileNoExcel</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Call_Centre_Auto_Allocation</t>
+  </si>
+  <si>
+    <t>Auto Allocation</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>List of Accounts - Excel</t>
+  </si>
+  <si>
+    <t>Dialer File - Excel</t>
+  </si>
+  <si>
+    <t>Invalid Mobile No - Excel</t>
+  </si>
+  <si>
+    <t>A1299G465C</t>
+  </si>
+  <si>
+    <t>TestAllocation70</t>
   </si>
 </sst>
 </file>
@@ -673,7 +728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +756,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -780,11 +842,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,10 +1000,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2E68A00F-5B3B-469F-9780-BD63A393D937}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1254,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1354,7 @@
     <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
@@ -1355,22 +1446,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -1415,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1513,7 +1604,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1548,8 +1639,8 @@
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
+      <c r="C2" s="60" t="s">
+        <v>201</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>47</v>
@@ -1568,7 +1659,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1610,73 +1701,73 @@
         <v>5</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
@@ -1684,79 +1775,79 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E2" s="18">
         <v>8089889900</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="O2" s="18">
         <v>90089257</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="18">
         <v>12345</v>
       </c>
       <c r="R2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Y2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Z2" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1796,19 +1887,19 @@
         <v>5</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -1816,22 +1907,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="19">
         <v>8089889900</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1847,7 +1938,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1876,13 +1967,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1917,30 +2008,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="32">
         <v>25000</v>
@@ -1952,7 +2043,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1964,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1987,66 +2078,66 @@
         <v>0</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
       <c r="H1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="K1" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>108</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>110</v>
       </c>
       <c r="O1" s="35" t="s">
         <v>35</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R1" s="35" t="s">
         <v>40</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="37">
         <v>25000</v>
@@ -2058,37 +2149,37 @@
         <v>19</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H2" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="K2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="L2" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M2" s="37">
         <v>10</v>
       </c>
       <c r="N2" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>121</v>
-      </c>
       <c r="Q2" s="39">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R2" s="37" t="s">
         <v>41</v>
@@ -2107,7 +2198,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2130,60 +2221,60 @@
         <v>0</v>
       </c>
       <c r="C1" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="44" t="s">
+      <c r="G1" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>109</v>
-      </c>
       <c r="J1" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>118</v>
-      </c>
       <c r="H2" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I2" s="43">
         <v>10</v>
       </c>
       <c r="J2" s="46">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2287,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2229,108 +2320,108 @@
         <v>0</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>139</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="G2" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="H2" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="J2" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="M2" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="47" t="s">
+      <c r="N2" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="50" t="s">
         <v>146</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2345,15 +2436,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEDE18E-1B20-4235-B8E3-630DC14CFC51}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="36" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="64">
+        <v>12345</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="65">
+        <v>8</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="67" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFAB67-A0F2-4F57-B685-B5FFC2EC3004}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
@@ -2369,18 +2591,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2633,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
@@ -2444,72 +2666,72 @@
         <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="H1" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="I1" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="L1" s="56" t="s">
         <v>165</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="G2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="I2" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="J2" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="55" t="s">
+      <c r="K2" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>177</v>
-      </c>
       <c r="L2" s="55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2539,18 +2761,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2579,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="56" t="s">
         <v>181</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>184</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>33</v>
@@ -2599,25 +2821,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H2" s="55">
         <v>1234</v>
@@ -2649,12 +2871,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>2</v>
@@ -2699,27 +2921,27 @@
         <v>8</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
@@ -2728,22 +2950,22 @@
         <v>27</v>
       </c>
       <c r="D2" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>118</v>
-      </c>
       <c r="F2" s="55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H2" s="55">
         <v>10000</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2774,24 +2996,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF435B2F-E783-4804-B82F-BAFA25BCB864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B006A7-168A-4813-BED5-CEC6AC138BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="16" activeTab="18" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="17" activeTab="17" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId17"/>
     <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId18"/>
     <sheet name="Call_Centre_Auto_Allocation" sheetId="21" r:id="rId19"/>
+    <sheet name="Core_Manual_Allocation" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="232">
   <si>
     <t>Run</t>
   </si>
@@ -719,6 +720,39 @@
   </si>
   <si>
     <t>TestAllocation70</t>
+  </si>
+  <si>
+    <t>ActionDate</t>
+  </si>
+  <si>
+    <t>Alphabets</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>ActionOwnerDropdownValue</t>
+  </si>
+  <si>
+    <t>Core_Manual_Allocation</t>
+  </si>
+  <si>
+    <t>Manual Allocation</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>A1B2C3</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>Moratorium</t>
   </si>
 </sst>
 </file>
@@ -847,7 +881,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1027,6 +1061,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2286,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2440,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEDE18E-1B20-4235-B8E3-630DC14CFC51}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2603,6 +2649,137 @@
       </c>
       <c r="D2" s="10" t="s">
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAC2746-1656-4673-976F-9974D169076A}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="72">
+        <v>3</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="73">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" s="73">
+        <v>123</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B006A7-168A-4813-BED5-CEC6AC138BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900D0BA-0B3F-487A-9B82-C327B757DCAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="17" activeTab="17" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -641,24 +641,6 @@
     <t>CoreBankRegularizationSummary</t>
   </si>
   <si>
-    <t>johnydep1</t>
-  </si>
-  <si>
-    <t>johnydep2</t>
-  </si>
-  <si>
-    <t>johnydep3</t>
-  </si>
-  <si>
-    <t>johnydep4</t>
-  </si>
-  <si>
-    <t>johnydep5</t>
-  </si>
-  <si>
-    <t>johnydep6</t>
-  </si>
-  <si>
     <t>Johncena</t>
   </si>
   <si>
@@ -753,6 +735,24 @@
   </si>
   <si>
     <t>Moratorium</t>
+  </si>
+  <si>
+    <t>Tanson1</t>
+  </si>
+  <si>
+    <t>Tanson2</t>
+  </si>
+  <si>
+    <t>Tanson3</t>
+  </si>
+  <si>
+    <t>Tanson4</t>
+  </si>
+  <si>
+    <t>Tanson5</t>
+  </si>
+  <si>
+    <t>Tanson6</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1492,22 +1492,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -1686,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>47</v>
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>95</v>
@@ -2526,39 +2526,39 @@
         <v>96</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K1" s="62" t="s">
         <v>97</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N1" s="63" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O1" s="63" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>2</v>
@@ -2573,10 +2573,10 @@
         <v>12345</v>
       </c>
       <c r="F2" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="68" t="s">
         <v>214</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>220</v>
       </c>
       <c r="H2" s="65">
         <v>8</v>
@@ -2585,22 +2585,22 @@
         <v>78</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K2" s="64" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="66" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O2" s="67" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>95</v>
@@ -2690,7 +2690,7 @@
         <v>96</v>
       </c>
       <c r="G1" s="70" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H1" s="69" t="s">
         <v>97</v>
@@ -2702,19 +2702,19 @@
         <v>99</v>
       </c>
       <c r="K1" s="70" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M1" s="70" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P1" s="70" t="s">
         <v>35</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>2</v>
@@ -2746,7 +2746,7 @@
         <v>20000</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H2" s="73" t="s">
         <v>19</v>
@@ -2758,25 +2758,25 @@
         <v>102</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L2" s="74" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M2" s="73">
         <v>123</v>
       </c>
       <c r="N2" s="73" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O2" s="73" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="74" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q2" s="74" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="R2" s="74" t="s">
         <v>41</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,32 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Beacon Automation\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D4C6A-12E4-41C7-97BA-78E9924E4260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E0181-BC23-411A-88AC-214901344160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
-    <sheet name="CallCentreRoleManagement" sheetId="13" r:id="rId2"/>
-    <sheet name="CoreAlertsPlaceholderManagement" sheetId="14" r:id="rId3"/>
-    <sheet name="AlertsTemplateManagement" sheetId="15" r:id="rId4"/>
-    <sheet name="AlertsNotificationManagement" sheetId="16" r:id="rId5"/>
-    <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="17" r:id="rId6"/>
-    <sheet name="AgentAccountAllocation" sheetId="18" r:id="rId7"/>
-    <sheet name="CoreBankAllocationSummary" sheetId="19" r:id="rId8"/>
-    <sheet name="CoreBankRegularizationSummary" sheetId="20" r:id="rId9"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId10"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId11"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId12"/>
-    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId13"/>
-    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId14"/>
-    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId15"/>
-    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId16"/>
-    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId17"/>
-    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId18"/>
+    <sheet name="CoreQAForm" sheetId="21" r:id="rId2"/>
+    <sheet name="CallCentreRoleManagement" sheetId="13" r:id="rId3"/>
+    <sheet name="CoreAlertsPlaceholderManagement" sheetId="14" r:id="rId4"/>
+    <sheet name="AlertsTemplateManagement" sheetId="15" r:id="rId5"/>
+    <sheet name="AlertsNotificationManagement" sheetId="16" r:id="rId6"/>
+    <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="17" r:id="rId7"/>
+    <sheet name="AgentAccountAllocation" sheetId="18" r:id="rId8"/>
+    <sheet name="CoreBankAllocationSummary" sheetId="19" r:id="rId9"/>
+    <sheet name="CoreBankRegularizationSummary" sheetId="20" r:id="rId10"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId11"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId12"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId13"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId14"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId15"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId16"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId17"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId18"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="206">
   <si>
     <t>Run</t>
   </si>
@@ -664,6 +665,15 @@
   </si>
   <si>
     <t>deepson11</t>
+  </si>
+  <si>
+    <t>CoreQAForm</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>Sample Template</t>
   </si>
 </sst>
 </file>
@@ -1254,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1412,6 +1422,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6993FB2D-6400-4A1B-8C97-912FD43C6B86}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1508,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1563,7 +1621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1769,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1842,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1890,7 +1948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1960,7 +2018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -2102,7 +2160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2191,7 +2249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -2346,6 +2404,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F65705-5559-469D-B899-2D29DF4DA4E7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFAB67-A0F2-4F57-B685-B5FFC2EC3004}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2388,7 +2494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B87CED1-ADCF-4939-B0CC-BC7CD7B25447}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2422,7 +2528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D56B6-4C74-412E-B95B-21C862046E92}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -2517,7 +2623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF55B7-F436-43C5-9963-D938C7EFC65D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2558,7 +2664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08976CF2-4030-41C6-895D-319E753EDB55}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2628,7 +2734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109F5396-AEFE-4B69-A083-6662A47FD65A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2668,12 +2774,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCD7318-A5F3-4498-8096-038B67B25CA0}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2749,52 +2855,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6993FB2D-6400-4A1B-8C97-912FD43C6B86}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C900D0BA-0B3F-487A-9B82-C327B757DCAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB13E3-0B29-4FE8-A96C-76CAE3715F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="9" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -278,12 +278,6 @@
     <t>User_UserManagment</t>
   </si>
   <si>
-    <t>Ahuja</t>
-  </si>
-  <si>
-    <t>ahuja@gmail.com</t>
-  </si>
-  <si>
     <t>NewrolePlaywright</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>test@123</t>
   </si>
   <si>
-    <t>Doctor strange</t>
-  </si>
-  <si>
     <t>docstra@gmail.com</t>
   </si>
   <si>
@@ -641,15 +632,6 @@
     <t>CoreBankRegularizationSummary</t>
   </si>
   <si>
-    <t>Johncena</t>
-  </si>
-  <si>
-    <t>diyan1</t>
-  </si>
-  <si>
-    <t>Cena</t>
-  </si>
-  <si>
     <t>AllocatedTo</t>
   </si>
   <si>
@@ -737,22 +719,40 @@
     <t>Moratorium</t>
   </si>
   <si>
-    <t>Tanson1</t>
-  </si>
-  <si>
-    <t>Tanson2</t>
-  </si>
-  <si>
-    <t>Tanson3</t>
-  </si>
-  <si>
-    <t>Tanson4</t>
-  </si>
-  <si>
-    <t>Tanson5</t>
-  </si>
-  <si>
-    <t>Tanson6</t>
+    <t>Johncena10</t>
+  </si>
+  <si>
+    <t>diyan10</t>
+  </si>
+  <si>
+    <t>Nambiar</t>
+  </si>
+  <si>
+    <t>nambiar123@gmail.com</t>
+  </si>
+  <si>
+    <t>Doctor strange1</t>
+  </si>
+  <si>
+    <t>Dishyum</t>
+  </si>
+  <si>
+    <t>Tanson13</t>
+  </si>
+  <si>
+    <t>Tanson14</t>
+  </si>
+  <si>
+    <t>Tanson15</t>
+  </si>
+  <si>
+    <t>Tanson16</t>
+  </si>
+  <si>
+    <t>Tanson17</t>
+  </si>
+  <si>
+    <t>Tanson18</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1686,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>47</v>
@@ -1705,14 +1705,14 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
     <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
@@ -1816,7 +1816,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -1824,22 +1824,22 @@
         <v>72</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="E2" s="18">
         <v>8089889900</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>65</v>
@@ -1848,52 +1848,52 @@
         <v>67</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="N2" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="O2" s="18">
         <v>90089257</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="18">
         <v>12345</v>
       </c>
       <c r="R2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="Y2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1953,22 +1953,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="19">
         <v>8089889900</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2013,13 +2013,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2054,30 +2054,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="32">
         <v>25000</v>
@@ -2089,7 +2089,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2101,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2124,66 +2124,66 @@
         <v>0</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>99</v>
-      </c>
       <c r="H1" s="35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>65</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O1" s="35" t="s">
         <v>35</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R1" s="35" t="s">
         <v>40</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="37">
         <v>25000</v>
@@ -2195,37 +2195,37 @@
         <v>19</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H2" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>116</v>
-      </c>
       <c r="L2" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M2" s="37">
         <v>10</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="39">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R2" s="37" t="s">
         <v>41</v>
@@ -2244,7 +2244,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2267,60 +2267,60 @@
         <v>0</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G1" s="44" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>116</v>
-      </c>
       <c r="H2" s="43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I2" s="43">
         <v>10</v>
       </c>
       <c r="J2" s="46">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2366,108 +2366,108 @@
         <v>0</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>136</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="G2" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="H2" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="J2" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="M2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="N2" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="51" t="s">
+      <c r="O2" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="P2" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="Q2" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>153</v>
-      </c>
       <c r="R2" s="50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2487,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2517,48 +2517,48 @@
         <v>0</v>
       </c>
       <c r="C1" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="63" t="s">
+      <c r="M1" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="N1" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="O1" s="63" t="s">
         <v>200</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="K1" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" s="63" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>2</v>
@@ -2567,40 +2567,40 @@
         <v>19</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" s="64">
         <v>12345</v>
       </c>
       <c r="F2" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="68" t="s">
-        <v>214</v>
-      </c>
       <c r="H2" s="65">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K2" s="64" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="66" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O2" s="67" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2613,14 +2613,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.6328125" customWidth="1"/>
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2642,13 +2642,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2661,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2678,49 +2678,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D1" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="70" t="s">
-        <v>203</v>
-      </c>
       <c r="L1" s="70" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M1" s="70" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P1" s="70" t="s">
         <v>35</v>
       </c>
       <c r="Q1" s="70" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R1" s="70" t="s">
         <v>40</v>
@@ -2728,25 +2728,25 @@
     </row>
     <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="72">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="73" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F2" s="73">
         <v>20000</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H2" s="73" t="s">
         <v>19</v>
@@ -2755,28 +2755,28 @@
         <v>19</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L2" s="74" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M2" s="73">
         <v>123</v>
       </c>
       <c r="N2" s="73" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O2" s="73" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="74" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="R2" s="74" t="s">
         <v>41</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
@@ -2843,72 +2843,72 @@
         <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="H1" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="I1" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="L1" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="G2" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="I2" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="J2" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="55" t="s">
+      <c r="K2" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>174</v>
-      </c>
       <c r="L2" s="55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2978,19 +2978,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="56" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>181</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>33</v>
@@ -2998,25 +2998,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H2" s="55">
         <v>1234</v>
@@ -3048,12 +3048,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>2</v>
@@ -3098,7 +3098,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="56" t="s">
         <v>65</v>
@@ -3107,18 +3107,18 @@
         <v>67</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
@@ -3127,16 +3127,16 @@
         <v>27</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H2" s="55">
         <v>10000</v>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationBeacon\GitHub_Beacon_FCM_Master\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F7799A-7F7B-46D1-A3C9-489049C9B1E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE772C7-55C5-4F1E-B4C9-2C054965448A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>Run</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>Update Adress</t>
+  </si>
+  <si>
+    <t>AgencyCreatedInAddAgencyFlow</t>
+  </si>
+  <si>
+    <t>ATMNAgencykpm</t>
   </si>
 </sst>
 </file>
@@ -914,18 +920,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659BFA7-C6D0-4B60-A4EE-B5E1B75045A7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
@@ -944,8 +951,11 @@
       <c r="F1" s="28" t="s">
         <v>103</v>
       </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -963,6 +973,9 @@
       </c>
       <c r="F2" t="s">
         <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beacon_Automation\Latest\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA05E5B-7AE5-4087-B12B-3E73BD609970}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37049A0A-B8AA-4CF9-835B-2740BF5C624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
     <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
     <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId5"/>
+    <sheet name="Allocation_Summary" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>Run</t>
   </si>
@@ -346,6 +347,24 @@
   <si>
     <t>docstra@gmail.com</t>
   </si>
+  <si>
+    <t>pcRegFormName</t>
+  </si>
+  <si>
+    <t>pcRegFormPcName</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>Account_No1</t>
+  </si>
+  <si>
+    <t>NoOfShares</t>
+  </si>
+  <si>
+    <t>Allocation Summary</t>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,8 +405,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -468,9 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -496,18 +526,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -535,6 +554,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -856,56 +877,56 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -914,93 +935,93 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1017,86 +1038,86 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>1.23456789012345E+28</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>1.23123212312321E+24</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>18</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="15">
         <v>45644</v>
       </c>
     </row>
@@ -1114,15 +1135,15 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1169,191 +1190,191 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="2">
         <v>8089889900</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="2">
         <v>90089257</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="2">
         <v>12345</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="20" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1371,64 +1392,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="3">
         <v>8089889900</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1438,4 +1459,58 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D1F0F7-F5FE-4E2D-924E-0FAFB668A140}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationBeacon\GitHub_Beacon_FCM_Master\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE772C7-55C5-4F1E-B4C9-2C054965448A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25F81E5-9356-4F57-A8D4-6B1C2A21A003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>Run</t>
   </si>
@@ -365,7 +365,13 @@
     <t>AgencyCreatedInAddAgencyFlow</t>
   </si>
   <si>
-    <t>ATMNAgencykpm</t>
+    <t>ATMNAgencybBx</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -558,6 +564,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -920,19 +929,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659BFA7-C6D0-4B60-A4EE-B5E1B75045A7}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
@@ -951,11 +961,17 @@
       <c r="F1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="29" t="s">
         <v>105</v>
       </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,32 +5,34 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D4C6A-12E4-41C7-97BA-78E9924E4260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD80FF1-3111-407A-8976-558DF28CDA32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
-    <sheet name="CallCentreRoleManagement" sheetId="13" r:id="rId2"/>
-    <sheet name="CoreAlertsPlaceholderManagement" sheetId="14" r:id="rId3"/>
-    <sheet name="AlertsTemplateManagement" sheetId="15" r:id="rId4"/>
-    <sheet name="AlertsNotificationManagement" sheetId="16" r:id="rId5"/>
-    <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="17" r:id="rId6"/>
-    <sheet name="AgentAccountAllocation" sheetId="18" r:id="rId7"/>
-    <sheet name="CoreBankAllocationSummary" sheetId="19" r:id="rId8"/>
-    <sheet name="CoreBankRegularizationSummary" sheetId="20" r:id="rId9"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId10"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId11"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId12"/>
-    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId13"/>
-    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId14"/>
-    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId15"/>
-    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId16"/>
-    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId17"/>
-    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId18"/>
+    <sheet name="CoreRoleManagement" sheetId="22" r:id="rId1"/>
+    <sheet name="Disposition_master" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId3"/>
+    <sheet name="CallCentreRoleManagement" sheetId="13" r:id="rId4"/>
+    <sheet name="CoreAlertsPlaceholderManagement" sheetId="14" r:id="rId5"/>
+    <sheet name="AlertsTemplateManagement" sheetId="15" r:id="rId6"/>
+    <sheet name="AlertsNotificationManagement" sheetId="16" r:id="rId7"/>
+    <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="17" r:id="rId8"/>
+    <sheet name="AgentAccountAllocation" sheetId="18" r:id="rId9"/>
+    <sheet name="CoreBankAllocationSummary" sheetId="19" r:id="rId10"/>
+    <sheet name="CoreBankRegularizationSummary" sheetId="20" r:id="rId11"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId12"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId13"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId14"/>
+    <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId15"/>
+    <sheet name="CA-AddNewAgent" sheetId="8" r:id="rId16"/>
+    <sheet name="Core_Regularization_Summary" sheetId="9" r:id="rId17"/>
+    <sheet name="CollectionAgencyDisposition" sheetId="10" r:id="rId18"/>
+    <sheet name="CA-AgentAccountAllocation" sheetId="11" r:id="rId19"/>
+    <sheet name="Core_LoginBannerConfig" sheetId="12" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="205">
   <si>
     <t>Run</t>
   </si>
@@ -664,6 +666,12 @@
   </si>
   <si>
     <t>deepson11</t>
+  </si>
+  <si>
+    <t>CoreRoleManagement</t>
+  </si>
+  <si>
+    <t>TestRole</t>
   </si>
 </sst>
 </file>
@@ -1251,159 +1259,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6475F6-3D04-4F68-86F4-9D8CE3EE0856}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C1" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>19</v>
+      <c r="C2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1412,6 +1299,137 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCD7318-A5F3-4498-8096-038B67B25CA0}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="55">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6993FB2D-6400-4A1B-8C97-912FD43C6B86}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1419,20 +1437,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1508,7 +1526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1516,15 +1534,15 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1563,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1571,35 +1589,35 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1090DB4-E483-4C4D-8367-1410BDACF1EB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1777,18 +1795,18 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1829,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1842,7 +1860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84F0AE-8762-4FD5-92CA-A4BB37675E67}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1850,14 +1868,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -1871,7 +1889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89943E99-F0EA-477A-BC49-972CD3C95FD8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1898,18 +1916,18 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="27"/>
-    <col min="3" max="3" width="25.7265625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="27"/>
+    <col min="2" max="2" width="8.7109375" style="27"/>
+    <col min="3" max="3" width="25.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +1950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>102</v>
       </c>
@@ -1960,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE214A7F-1CCD-473B-9D90-2C8A2FFCDD67}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1968,18 +1986,18 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="36"/>
+    <col min="2" max="2" width="8.7109375" style="36"/>
     <col min="3" max="3" width="14" style="36" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="36" customWidth="1"/>
-    <col min="5" max="18" width="8.7265625" style="36"/>
-    <col min="19" max="19" width="18.7265625" style="36" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="36"/>
+    <col min="4" max="4" width="13.85546875" style="36" customWidth="1"/>
+    <col min="5" max="18" width="8.7109375" style="36"/>
+    <col min="19" max="19" width="18.7109375" style="36" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>114</v>
       </c>
@@ -2102,7 +2120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A90A9-AB89-4C76-BF21-0726E83DFEAA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2110,19 +2128,19 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
@@ -2154,7 +2172,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>124</v>
       </c>
@@ -2191,7 +2209,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A2FA0-C188-4BFC-B422-FA837B3784A7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -2199,29 +2378,29 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
@@ -2277,7 +2456,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>142</v>
       </c>
@@ -2345,7 +2524,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3F5303-EBB7-4BFE-B626-71D5EC44204A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFAB67-A0F2-4F57-B685-B5FFC2EC3004}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2353,9 +2544,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -2369,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
@@ -2388,7 +2579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B87CED1-ADCF-4939-B0CC-BC7CD7B25447}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2396,12 +2587,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.36328125" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
@@ -2409,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>158</v>
       </c>
@@ -2422,7 +2613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D56B6-4C74-412E-B95B-21C862046E92}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -2430,13 +2621,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="10" max="10" width="65.08984375" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
@@ -2474,7 +2665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>169</v>
       </c>
@@ -2517,7 +2708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF55B7-F436-43C5-9963-D938C7EFC65D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2525,13 +2716,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>179</v>
       </c>
@@ -2558,7 +2749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08976CF2-4030-41C6-895D-319E753EDB55}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2566,12 +2757,12 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
@@ -2597,7 +2788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>185</v>
       </c>
@@ -2628,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109F5396-AEFE-4B69-A083-6662A47FD65A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2636,12 +2827,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2843,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>190</v>
       </c>
@@ -2661,137 +2852,6 @@
       </c>
       <c r="C2" s="28">
         <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCD7318-A5F3-4498-8096-038B67B25CA0}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="55">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6993FB2D-6400-4A1B-8C97-912FD43C6B86}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beacon_Automation\Latest\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37049A0A-B8AA-4CF9-835B-2740BF5C624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF6492-9FF3-4572-B3EA-7A43A46F1543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId3"/>
     <sheet name="CoreUserManagement" sheetId="6" r:id="rId4"/>
     <sheet name="CoreHOUserCreation" sheetId="7" r:id="rId5"/>
-    <sheet name="Allocation_Summary" sheetId="8" r:id="rId6"/>
+    <sheet name="CA-AllocationSummary" sheetId="10" r:id="rId6"/>
+    <sheet name="Allocation_Summary" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <t>Run</t>
   </si>
@@ -364,6 +365,9 @@
   </si>
   <si>
     <t>Allocation Summary</t>
+  </si>
+  <si>
+    <t>CA-AllocationSummary</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1466,64 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F01D77-7FCD-4325-93DB-B141ADAEEE17}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D1F0F7-F5FE-4E2D-924E-0FAFB668A140}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationBeacon\GitHub_Beacon_FCM_Master\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25F81E5-9356-4F57-A8D4-6B1C2A21A003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E75F7D-6686-4509-9B7F-B5A1008E0D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="CallCenter" sheetId="8" r:id="rId1"/>
-    <sheet name="AddAgencyList" sheetId="10" r:id="rId2"/>
-    <sheet name="AddAgency" sheetId="9" r:id="rId3"/>
-    <sheet name="AddNewAgent" sheetId="7" r:id="rId4"/>
-    <sheet name="Disposition_master" sheetId="3" r:id="rId5"/>
-    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId6"/>
-    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId7"/>
-    <sheet name="CoreUserManagement" sheetId="6" r:id="rId8"/>
+    <sheet name="CoreAgentList" sheetId="11" r:id="rId2"/>
+    <sheet name="AddAgencyList" sheetId="10" r:id="rId3"/>
+    <sheet name="AddAgency" sheetId="9" r:id="rId4"/>
+    <sheet name="AddNewAgent" sheetId="7" r:id="rId5"/>
+    <sheet name="Disposition_master" sheetId="3" r:id="rId6"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId7"/>
+    <sheet name="CollectionAgencyRoleManagement" sheetId="5" r:id="rId8"/>
+    <sheet name="CoreUserManagement" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
   <si>
     <t>Run</t>
   </si>
@@ -365,13 +366,211 @@
     <t>AgencyCreatedInAddAgencyFlow</t>
   </si>
   <si>
-    <t>ATMNAgencybBx</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>ATMNAgencywmf</t>
+  </si>
+  <si>
+    <t>AGY0002444</t>
+  </si>
+  <si>
+    <t>QadAEO</t>
+  </si>
+  <si>
+    <t>CoreAddAgentList</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Agent Password</t>
+  </si>
+  <si>
+    <t>AGY0002447</t>
+  </si>
+  <si>
+    <t>gn3l4%</t>
+  </si>
+  <si>
+    <t>AGY0002450</t>
+  </si>
+  <si>
+    <t>!pva22</t>
+  </si>
+  <si>
+    <t>AGY0002451</t>
+  </si>
+  <si>
+    <t>1%8B1N</t>
+  </si>
+  <si>
+    <t>AGY0002452</t>
+  </si>
+  <si>
+    <t>%1Yd2E</t>
+  </si>
+  <si>
+    <t>AGY0002453</t>
+  </si>
+  <si>
+    <t>3V1%as</t>
+  </si>
+  <si>
+    <t>AGY0002454</t>
+  </si>
+  <si>
+    <t>a@2aC8</t>
+  </si>
+  <si>
+    <t>AGY0002455</t>
+  </si>
+  <si>
+    <t>BD!26b</t>
+  </si>
+  <si>
+    <t>ATMNAgencyVNh</t>
+  </si>
+  <si>
+    <t>AGY0002456</t>
+  </si>
+  <si>
+    <t>9tWme5</t>
+  </si>
+  <si>
+    <t>ATMNAgencyZd5</t>
+  </si>
+  <si>
+    <t>AGY0002457</t>
+  </si>
+  <si>
+    <t>VJ6FQx</t>
+  </si>
+  <si>
+    <t>ATMNAgency4G0</t>
+  </si>
+  <si>
+    <t>ATMNAgencyfuO</t>
+  </si>
+  <si>
+    <t>AGY0002459</t>
+  </si>
+  <si>
+    <t>fgP8xD</t>
+  </si>
+  <si>
+    <t>ATMNAgencydMI</t>
+  </si>
+  <si>
+    <t>AGY0002460</t>
+  </si>
+  <si>
+    <t>aurVVg</t>
+  </si>
+  <si>
+    <t>ATMNAgencyP4r</t>
+  </si>
+  <si>
+    <t>AGY0002461</t>
+  </si>
+  <si>
+    <t>5ojbV3</t>
+  </si>
+  <si>
+    <t>ATMNAgencyUr2</t>
+  </si>
+  <si>
+    <t>AGY0002462</t>
+  </si>
+  <si>
+    <t>94YaHd</t>
+  </si>
+  <si>
+    <t>ATMNAgencygfw</t>
+  </si>
+  <si>
+    <t>AGY0002463</t>
+  </si>
+  <si>
+    <t>T4qYjM</t>
+  </si>
+  <si>
+    <t>AGY0002464</t>
+  </si>
+  <si>
+    <t>Do1Y@7</t>
+  </si>
+  <si>
+    <t>ATMNAgency8HH</t>
+  </si>
+  <si>
+    <t>AGY0002465</t>
+  </si>
+  <si>
+    <t>nEq1d4</t>
+  </si>
+  <si>
+    <t>ATMNAgencyihH</t>
+  </si>
+  <si>
+    <t>AGY0002466</t>
+  </si>
+  <si>
+    <t>3n1AFC</t>
+  </si>
+  <si>
+    <t>AGY0002467</t>
+  </si>
+  <si>
+    <t>v5T7R#</t>
+  </si>
+  <si>
+    <t>ATMNAgencyRrW</t>
+  </si>
+  <si>
+    <t>AGY0002468</t>
+  </si>
+  <si>
+    <t>7EnANU</t>
+  </si>
+  <si>
+    <t>AGY0002469</t>
+  </si>
+  <si>
+    <t>g!37s2</t>
+  </si>
+  <si>
+    <t>AGY0002470</t>
+  </si>
+  <si>
+    <t>QFzl7I</t>
+  </si>
+  <si>
+    <t>AGY0002471</t>
+  </si>
+  <si>
+    <t>13jmb3</t>
+  </si>
+  <si>
+    <t>AGY0002472</t>
+  </si>
+  <si>
+    <t>zCssyr</t>
+  </si>
+  <si>
+    <t>AGY0002473</t>
+  </si>
+  <si>
+    <t>z16ZvB</t>
+  </si>
+  <si>
+    <t>AGY0002474</t>
+  </si>
+  <si>
+    <t>MXMpms</t>
   </si>
 </sst>
 </file>
@@ -890,10 +1089,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.42578125"/>
+    <col min="4" max="4" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,18 +1127,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C286CB-AEE3-4F9C-BEDF-B5181A1244C5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.42578125"/>
+    <col min="4" max="4" customWidth="true" width="18.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659BFA7-C6D0-4B60-A4EE-B5E1B75045A7}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.140625"/>
+    <col min="6" max="6" customWidth="true" width="13.85546875"/>
+    <col min="7" max="7" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -955,7 +1209,7 @@
       <c r="D1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>72</v>
       </c>
       <c r="F1" s="28" t="s">
@@ -964,11 +1218,11 @@
       <c r="G1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="I1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -987,11 +1241,17 @@
       <c r="E2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="G2" t="s">
-        <v>106</v>
+      <c r="G2" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687623D0-D57B-4166-B594-4AF2CAA6F773}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1023,7 +1283,7 @@
       <c r="D1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
@@ -1049,7 +1309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379A03F-0BDE-4AFB-B2D4-4C2EF4A1030A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1059,10 +1319,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.42578125"/>
+    <col min="4" max="4" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,7 +1358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -1108,26 +1368,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.42578125"/>
+    <col min="4" max="4" customWidth="true" width="18.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="41.5703125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="29.28515625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="42.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="42.85546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.5703125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.85546875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="28.85546875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="45.85546875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="40.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1259,7 +1519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1269,15 +1529,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1356,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCC895A-2382-45F5-A8F1-2814E48093FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1366,10 +1626,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.42578125"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="5" max="5" customWidth="true" width="26.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,7 +1671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BD0DAF-92F9-4A53-BD4C-11CDE669575B}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1419,30 +1679,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.7109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.5703125"/>
+    <col min="8" max="10" bestFit="true" customWidth="true" width="16.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.140625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.5703125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.42578125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.85546875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.42578125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.42578125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.7109375"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationBeacon\GitHub_Beacon_FCM_Master\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E75F7D-6686-4509-9B7F-B5A1008E0D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E098B7B2-7C3A-4B0D-82CB-DD3471862FD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="146">
   <si>
     <t>Run</t>
   </si>
@@ -372,15 +372,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ATMNAgencywmf</t>
-  </si>
-  <si>
-    <t>AGY0002444</t>
-  </si>
-  <si>
-    <t>QadAEO</t>
-  </si>
-  <si>
     <t>CoreAddAgentList</t>
   </si>
   <si>
@@ -390,187 +381,109 @@
     <t>Agent Password</t>
   </si>
   <si>
-    <t>AGY0002447</t>
-  </si>
-  <si>
-    <t>gn3l4%</t>
-  </si>
-  <si>
-    <t>AGY0002450</t>
-  </si>
-  <si>
-    <t>!pva22</t>
-  </si>
-  <si>
-    <t>AGY0002451</t>
-  </si>
-  <si>
-    <t>1%8B1N</t>
-  </si>
-  <si>
-    <t>AGY0002452</t>
-  </si>
-  <si>
-    <t>%1Yd2E</t>
-  </si>
-  <si>
-    <t>AGY0002453</t>
-  </si>
-  <si>
-    <t>3V1%as</t>
-  </si>
-  <si>
-    <t>AGY0002454</t>
-  </si>
-  <si>
-    <t>a@2aC8</t>
-  </si>
-  <si>
-    <t>AGY0002455</t>
-  </si>
-  <si>
-    <t>BD!26b</t>
-  </si>
-  <si>
-    <t>ATMNAgencyVNh</t>
-  </si>
-  <si>
-    <t>AGY0002456</t>
-  </si>
-  <si>
-    <t>9tWme5</t>
-  </si>
-  <si>
-    <t>ATMNAgencyZd5</t>
-  </si>
-  <si>
-    <t>AGY0002457</t>
-  </si>
-  <si>
-    <t>VJ6FQx</t>
-  </si>
-  <si>
-    <t>ATMNAgency4G0</t>
-  </si>
-  <si>
-    <t>ATMNAgencyfuO</t>
-  </si>
-  <si>
-    <t>AGY0002459</t>
-  </si>
-  <si>
-    <t>fgP8xD</t>
-  </si>
-  <si>
-    <t>ATMNAgencydMI</t>
-  </si>
-  <si>
-    <t>AGY0002460</t>
-  </si>
-  <si>
-    <t>aurVVg</t>
-  </si>
-  <si>
-    <t>ATMNAgencyP4r</t>
-  </si>
-  <si>
-    <t>AGY0002461</t>
-  </si>
-  <si>
-    <t>5ojbV3</t>
-  </si>
-  <si>
-    <t>ATMNAgencyUr2</t>
-  </si>
-  <si>
-    <t>AGY0002462</t>
-  </si>
-  <si>
-    <t>94YaHd</t>
-  </si>
-  <si>
-    <t>ATMNAgencygfw</t>
-  </si>
-  <si>
-    <t>AGY0002463</t>
-  </si>
-  <si>
-    <t>T4qYjM</t>
-  </si>
-  <si>
-    <t>AGY0002464</t>
-  </si>
-  <si>
-    <t>Do1Y@7</t>
-  </si>
-  <si>
-    <t>ATMNAgency8HH</t>
-  </si>
-  <si>
-    <t>AGY0002465</t>
-  </si>
-  <si>
-    <t>nEq1d4</t>
-  </si>
-  <si>
-    <t>ATMNAgencyihH</t>
-  </si>
-  <si>
-    <t>AGY0002466</t>
-  </si>
-  <si>
-    <t>3n1AFC</t>
-  </si>
-  <si>
-    <t>AGY0002467</t>
-  </si>
-  <si>
-    <t>v5T7R#</t>
-  </si>
-  <si>
-    <t>ATMNAgencyRrW</t>
-  </si>
-  <si>
-    <t>AGY0002468</t>
-  </si>
-  <si>
-    <t>7EnANU</t>
-  </si>
-  <si>
-    <t>AGY0002469</t>
-  </si>
-  <si>
-    <t>g!37s2</t>
-  </si>
-  <si>
-    <t>AGY0002470</t>
-  </si>
-  <si>
-    <t>QFzl7I</t>
-  </si>
-  <si>
-    <t>AGY0002471</t>
-  </si>
-  <si>
-    <t>13jmb3</t>
-  </si>
-  <si>
-    <t>AGY0002472</t>
-  </si>
-  <si>
-    <t>zCssyr</t>
-  </si>
-  <si>
-    <t>AGY0002473</t>
-  </si>
-  <si>
-    <t>z16ZvB</t>
-  </si>
-  <si>
-    <t>AGY0002474</t>
-  </si>
-  <si>
-    <t>MXMpms</t>
+    <t>ATMNAgencyIWv</t>
+  </si>
+  <si>
+    <t>ATMNAgencyh62</t>
+  </si>
+  <si>
+    <t>AGY0002490</t>
+  </si>
+  <si>
+    <t>7XmqsL</t>
+  </si>
+  <si>
+    <t>AGY0002491</t>
+  </si>
+  <si>
+    <t>3#M2PM</t>
+  </si>
+  <si>
+    <t>Agency name</t>
+  </si>
+  <si>
+    <t>ATMNAgencyCQ0</t>
+  </si>
+  <si>
+    <t>AGY0002492</t>
+  </si>
+  <si>
+    <t>IMV3DO</t>
+  </si>
+  <si>
+    <t>AGY0002493</t>
+  </si>
+  <si>
+    <t>!Y9O03</t>
+  </si>
+  <si>
+    <t>ATMNAgencyUaR</t>
+  </si>
+  <si>
+    <t>AGY0002494</t>
+  </si>
+  <si>
+    <t>OYPiRT</t>
+  </si>
+  <si>
+    <t>ATMNAgencya9t</t>
+  </si>
+  <si>
+    <t>ATMNAgency6q6</t>
+  </si>
+  <si>
+    <t>AGY0002495</t>
+  </si>
+  <si>
+    <t>VK93pT</t>
+  </si>
+  <si>
+    <t>AGY0002496</t>
+  </si>
+  <si>
+    <t>5jy3S^</t>
+  </si>
+  <si>
+    <t>ATMNAgencyyMC</t>
+  </si>
+  <si>
+    <t>AGY0002497</t>
+  </si>
+  <si>
+    <t>abBm87</t>
+  </si>
+  <si>
+    <t>AGY0002498</t>
+  </si>
+  <si>
+    <t>5P3$KO</t>
+  </si>
+  <si>
+    <t>ATMNAgencyBBh</t>
+  </si>
+  <si>
+    <t>ATMNAgencyO2g</t>
+  </si>
+  <si>
+    <t>AGY0002500</t>
+  </si>
+  <si>
+    <t>6LDRUM</t>
+  </si>
+  <si>
+    <t>ATMNAgency3q1</t>
+  </si>
+  <si>
+    <t>AGY0002501</t>
+  </si>
+  <si>
+    <t>fBaJqk</t>
+  </si>
+  <si>
+    <t>AGY0002502</t>
+  </si>
+  <si>
+    <t>^z785C</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C286CB-AEE3-4F9C-BEDF-B5181A1244C5}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1055,7 @@
     <col min="4" max="4" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
@@ -1153,27 +1066,33 @@
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>164</v>
+        <v>145</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659BFA7-C6D0-4B60-A4EE-B5E1B75045A7}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -1196,7 +1115,7 @@
     <col min="7" max="7" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
@@ -1225,7 +1144,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -1245,13 +1164,16 @@
         <v>104</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>174</v>
+        <v>143</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB13E3-0B29-4FE8-A96C-76CAE3715F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15444377-31A9-4B35-BB10-07074BE82EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="9" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -737,22 +737,22 @@
     <t>Dishyum</t>
   </si>
   <si>
-    <t>Tanson13</t>
-  </si>
-  <si>
-    <t>Tanson14</t>
-  </si>
-  <si>
-    <t>Tanson15</t>
-  </si>
-  <si>
-    <t>Tanson16</t>
-  </si>
-  <si>
-    <t>Tanson17</t>
-  </si>
-  <si>
-    <t>Tanson18</t>
+    <t>Malar7</t>
+  </si>
+  <si>
+    <t>Malar8</t>
+  </si>
+  <si>
+    <t>Malar9</t>
+  </si>
+  <si>
+    <t>Malar10</t>
+  </si>
+  <si>
+    <t>Malar11</t>
+  </si>
+  <si>
+    <t>Malar12</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.206\Users\yadhukrishnan.p\Documents\GitHub\BeaconFCM_SJ\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15444377-31A9-4B35-BB10-07074BE82EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7472A5-6DB2-4D9D-8B1E-AF70FC48E29E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -737,22 +737,22 @@
     <t>Dishyum</t>
   </si>
   <si>
-    <t>Malar7</t>
-  </si>
-  <si>
-    <t>Malar8</t>
-  </si>
-  <si>
-    <t>Malar9</t>
-  </si>
-  <si>
-    <t>Malar10</t>
-  </si>
-  <si>
-    <t>Malar11</t>
-  </si>
-  <si>
-    <t>Malar12</t>
+    <t>Malar67</t>
+  </si>
+  <si>
+    <t>Malar68</t>
+  </si>
+  <si>
+    <t>Malar69</t>
+  </si>
+  <si>
+    <t>Malar70</t>
+  </si>
+  <si>
+    <t>Malar71</t>
+  </si>
+  <si>
+    <t>Malar72</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
